--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-05_beg.xlsx
@@ -1172,7 +1172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  You're one tap of this "alert all units" button away from making an enemy out of the entire L. G. D. 
+    <t xml:space="preserve">[name="Ch'en"]  You're one tap of this 'alert all units' button away from making an enemy out of the entire L. G. D. 
 </t>
   </si>
   <si>
@@ -1304,11 +1304,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  "Lin Gray."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch'en"]  Hmph. Now I'm the one who gets to say "no way!" Lin runs the slums as his personal fief. There's no way he'd let something like this happen.
+    <t xml:space="preserve">[name="Swire"]  'Lin Gray.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Hmph. Now I'm the one who gets to say 'no way!' Lin runs the slums as his personal fief. There's no way he'd let something like this happen.
 </t>
   </si>
   <si>
